--- a/biology/Botanique/Hydrangea_petiolaris/Hydrangea_petiolaris.xlsx
+++ b/biology/Botanique/Hydrangea_petiolaris/Hydrangea_petiolaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce
 genre
-Hydrangea petiolaris, un hortensia grimpant (syn: Hydrangea anomala subsp. petiolaris ), est une espèce de plante à fleurs de la famille des Hydrangeaceae originaire du Japon, de Corée et de l'île de Sakhaline (à l'extrême est de la Sibérie, dans l'Extrême-Orient russe) [1].
+Hydrangea petiolaris, un hortensia grimpant (syn: Hydrangea anomala subsp. petiolaris ), est une espèce de plante à fleurs de la famille des Hydrangeaceae originaire du Japon, de Corée et de l'île de Sakhaline (à l'extrême est de la Sibérie, dans l'Extrême-Orient russe) .
 L'Hydrangea petiolaris est parfois considérée comme une sous-espèce de l' Hydrangea anomala, étroitement apparentée, originaire de Chine, du Myanmar et de l'Himalaya; cette sous-espèce est alors désignée comme Hydrangea anomala subsp. pétiolaire. L'espèce Hydrangea anomala se distingue d'Hydrangea petiolaris par sa taille, plus petite: elle atteint 12 mètres au plus, et le diamètre de ses corymbes floraux ne dépassent pas 15 cm.
 Les deux espèces sont appelées en français nom commun hortensia grimpant.
 </t>
@@ -515,11 +527,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hydrangea petiolaris est une plante grimpante ligneuse vigoureuse, atteignant 9 à 15 mètres de haut et environ 2 mètres de large[1]. Dans son habitat asiatiques d'originel, il s'accroche aux arbres et parois rocheuses, par de petites racines aériennes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hydrangea petiolaris est une plante grimpante ligneuse vigoureuse, atteignant 9 à 15 mètres de haut et environ 2 mètres de large. Dans son habitat asiatiques d'originel, il s'accroche aux arbres et parois rocheuses, par de petites racines aériennes.
 Les feuilles, caduques, de 4 à 11 cm de long et 3 à 8 cm de large, sont ovales, cordées à la base, pointues au sommet, et munies d'un bord grossièrement denté.
-La floraison se produit en milieu d'été. Les corymbes sont plats, ont 15 à 25 cm de diamètre, chacun groupant, sur son pourtour, quelques fleurs, blanches stériles de 2 à 5 cm, et en son centre de nombreuses petites fleurs fertiles blanc cassé de quelques millimètres[1]. Le fruit, une capsule sèche en forme d'urne de quelques millimètres, contient plusieurs petites graines ailées.
+La floraison se produit en milieu d'été. Les corymbes sont plats, ont 15 à 25 cm de diamètre, chacun groupant, sur son pourtour, quelques fleurs, blanches stériles de 2 à 5 cm, et en son centre de nombreuses petites fleurs fertiles blanc cassé de quelques millimètres. Le fruit, une capsule sèche en forme d'urne de quelques millimètres, contient plusieurs petites graines ailées.
 </t>
         </is>
       </c>
@@ -548,12 +562,14 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hydrangea petiolaris est cultivée comme plante d'ornement en Europe et en Amérique du Nord, sur des murs de maçonnerie ou des treillis ou des clôtures robustes. Un ensoleillement du matin suivi  d'ombre l'après-midi sont idéaux, mais il supporte les zones ombragées orientées au nord avec peu ou pas de soleil [1]. Ses radicelles, moins solides que celles d'autres plantes grimpantes, peuvent être aidées par des attaches de jardinage. La plante peut être taillée en espalier, appliquée contre son support. Taillées pendant la floraison, les fleurs peuvent être mises en bouquets.
-Hydrangeo petiolaris peut aussi être cultivé en plante basse et couvrir jusqu'à une vingtaine  superficie allant jusqu'à de mètres carrés [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hydrangea petiolaris est cultivée comme plante d'ornement en Europe et en Amérique du Nord, sur des murs de maçonnerie ou des treillis ou des clôtures robustes. Un ensoleillement du matin suivi  d'ombre l'après-midi sont idéaux, mais il supporte les zones ombragées orientées au nord avec peu ou pas de soleil . Ses radicelles, moins solides que celles d'autres plantes grimpantes, peuvent être aidées par des attaches de jardinage. La plante peut être taillée en espalier, appliquée contre son support. Taillées pendant la floraison, les fleurs peuvent être mises en bouquets.
+Hydrangeo petiolaris peut aussi être cultivé en plante basse et couvrir jusqu'à une vingtaine  superficie allant jusqu'à de mètres carrés 
 Cette plante peut supporter des températures comprises entre -30 °C et +30 °C.
-Les jeunes feuilles de l’hortensia grimpant sont comestibles une fois cuites. Au goût de concombre, ils sont parfois ajoutés au miso au Japon[2].
+Les jeunes feuilles de l’hortensia grimpant sont comestibles une fois cuites. Au goût de concombre, ils sont parfois ajoutés au miso au Japon.
 			Illustration botanique
 			Sur un mur de jardin.
 			Feuillage.
@@ -585,9 +601,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot grec hydrangea signifie « récipient à eau », en référence à la forme de ses capsules de graines[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot grec hydrangea signifie « récipient à eau », en référence à la forme de ses capsules de graines.
 </t>
         </is>
       </c>
